--- a/media/kegiatan/psm/rakernis/exported/REKAPITULASI RAPAT KERJA TEKNIS 2024.xlsx
+++ b/media/kegiatan/psm/rakernis/exported/REKAPITULASI RAPAT KERJA TEKNIS 2024.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -94,7 +94,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +469,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="28.8" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="14.4" customWidth="1" min="4" max="4"/>
-    <col width="36" customWidth="1" min="5" max="5"/>
-    <col width="13.2" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="14.4" customWidth="1" min="8" max="8"/>
+    <col width="33.6" customWidth="1" min="5" max="5"/>
+    <col width="26.4" customWidth="1" min="6" max="6"/>
+    <col width="26.4" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
     <col width="32.4" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -533,38 +532,38 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BNN Kabupaten Cianjur </t>
+          <t xml:space="preserve">BNN Kota Jakarta Utara </t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45383</v>
+        <v>45293</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>BNN Kabupaten Aceh Selatan</t>
+          <t xml:space="preserve">BNN Kota Pangkal Pinang </t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Deleniti fugiat illu</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Tempor inventore eos</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Dolores cupiditate m</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Qui hic qui sed est</t>
         </is>
       </c>
     </row>
@@ -575,151 +574,38 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>45372</v>
+        <v>45337</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>BNN Kabupaten Aceh Selatan</t>
+          <t>BNN Kota Prabumulih</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Inventore eos imped</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Rerum mollit nostrud</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>Ea repudiandae nihil</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>45378</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>BNN Kabupaten Aceh Tamiang</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>BNNP Jawa Barat</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>BNN Kabupaten Aceh Selatan</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BNN Kabupaten Bandung Barat </t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>test edit</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>test edit</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>test edit</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>test</t>
+          <t>Laborum Maxime odio</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
